--- a/spot_rates.xlsx
+++ b/spot_rates.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvele\Desktop\VA Securities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C32E4AC-761A-486A-9AFB-0CB43F54C667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B69BDD2-0F95-4E8C-9B0A-25CAE25EAE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{3AF358FD-00C5-4ABE-B5C1-9C4062DB332B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{3AF358FD-00C5-4ABE-B5C1-9C4062DB332B}"/>
   </bookViews>
   <sheets>
     <sheet name="spot_rates" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="broker_balances" sheetId="2" r:id="rId3"/>
+    <sheet name="trade_log" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="broker_balances" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
   <si>
     <t>Crypto</t>
   </si>
@@ -59,19 +60,74 @@
     <t>Cash</t>
   </si>
   <si>
-    <t xml:space="preserve">buy </t>
-  </si>
-  <si>
-    <t>algo</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Counterparty</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Payment Type</t>
+  </si>
+  <si>
+    <t>Payment Amount</t>
+  </si>
+  <si>
+    <t>Transaction Value</t>
+  </si>
+  <si>
+    <t>Margin (%)</t>
+  </si>
+  <si>
+    <t>Margin ($)</t>
+  </si>
+  <si>
+    <t>Wire - Add</t>
+  </si>
+  <si>
+    <t>0x7n289h9868631fb712</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Broker-Dealer</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>0x79712597n1257hf721</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Margin Loans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -105,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,17 +178,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -450,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0FF778-3780-4B7A-B3B4-2D19643432F4}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -507,31 +582,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4329027-71AB-43AD-8D80-FC26BB46C40C}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -540,14 +642,495 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A34C22-D973-496E-A19C-24979ECA4C9D}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC937F6F-F7C4-4563-88A6-DCA74336AD8B}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44557</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>5000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44557</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0.06</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>243.291</v>
+      </c>
+      <c r="J3">
+        <v>243.291</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44557</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>5.9928234090040316E-3</v>
+      </c>
+      <c r="J4">
+        <v>24.3</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44557</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44557</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44557</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44557</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0.06</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>243.291</v>
+      </c>
+      <c r="J10">
+        <v>243.291</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44557</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>5.9928234090040316E-3</v>
+      </c>
+      <c r="J11">
+        <v>24.3</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44557</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44557</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A34C22-D973-496E-A19C-24979ECA4C9D}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -587,6 +1170,14 @@
       </c>
       <c r="B5" s="1">
         <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
